--- a/files/network_configuration.xlsx
+++ b/files/network_configuration.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\PSA\PSA_CourseProject\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A93B2922-6751-42BF-9992-7832B5E7256F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD8AF92-90F0-43A3-9CBD-21736F155EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{087CFF53-C5D0-435F-B708-014BEF3D516C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{087CFF53-C5D0-435F-B708-014BEF3D516C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Line_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Bus_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Bus Code p-q</t>
-  </si>
-  <si>
-    <t>Impedance Zpq</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Half Line Charging Admittance</t>
   </si>
@@ -50,25 +45,37 @@
     <t>Real Power Line Limit</t>
   </si>
   <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>1 - 3</t>
-  </si>
-  <si>
-    <t>2 - 3</t>
-  </si>
-  <si>
-    <t>2 - 4</t>
-  </si>
-  <si>
-    <t>2 - 5</t>
-  </si>
-  <si>
-    <t>3 - 4</t>
-  </si>
-  <si>
-    <t>4 - 5</t>
+    <t>From line</t>
+  </si>
+  <si>
+    <t>To line</t>
+  </si>
+  <si>
+    <t>R[pu]</t>
+  </si>
+  <si>
+    <t>X[pu]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Load (MVAr)</t>
+  </si>
+  <si>
+    <t>Load (MW)</t>
+  </si>
+  <si>
+    <t>Generation (MVAr)</t>
+  </si>
+  <si>
+    <t>Generation (MW)</t>
+  </si>
+  <si>
+    <t>Assumed bus voltage (pu)</t>
+  </si>
+  <si>
+    <t>Bus Code</t>
   </si>
 </sst>
 </file>
@@ -110,10 +117,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,157 +440,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B469C33-5191-4520-91FC-78F544420011}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <f>COMPLEX(0.02,0.06,"j")</f>
-        <v>0.02+0.06j</v>
-      </c>
-      <c r="C2" t="str">
-        <f>COMPLEX(0,0.03,"j")</f>
-        <v>0.03j</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="B3" t="str">
-        <f>COMPLEX(0.08,0.24,"j")</f>
-        <v>0.08+0.24j</v>
-      </c>
-      <c r="C3" t="str">
-        <f>COMPLEX(0,0.025,"j")</f>
-        <v>0.025j</v>
-      </c>
-      <c r="D3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="str">
-        <f>COMPLEX(0.06,0.18,"j")</f>
-        <v>0.06+0.18j</v>
-      </c>
-      <c r="C4" t="str">
-        <f>COMPLEX(0,0.02,"j")</f>
-        <v>0.02j</v>
-      </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="str">
-        <f>COMPLEX(0.06,0.18,"j")</f>
-        <v>0.06+0.18j</v>
-      </c>
-      <c r="C5" t="str">
-        <f>COMPLEX(0,0.02,"j")</f>
-        <v>0.02j</v>
-      </c>
-      <c r="D5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="str">
-        <f>COMPLEX(0.04,0.12,"j")</f>
-        <v>0.04+0.12j</v>
-      </c>
-      <c r="C6" t="str">
-        <f>COMPLEX(0,0.015,"j")</f>
-        <v>0.015j</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="str">
-        <f>COMPLEX(0.01,0.03,"j")</f>
-        <v>0.01+0.03j</v>
-      </c>
-      <c r="C7" t="str">
-        <f>COMPLEX(0,0.01,"j")</f>
-        <v>0.01j</v>
-      </c>
-      <c r="D7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" ref="B4:B8" si="0">COMPLEX(0.08,0.24,"j")</f>
-        <v>0.08+0.24j</v>
-      </c>
-      <c r="C8" t="str">
-        <f>COMPLEX(0,0.025,"j")</f>
-        <v>0.025j</v>
-      </c>
-      <c r="D8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F8" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B753AEB-BF4C-40EC-9F78-0B099CC9F275}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>COMPLEX(1.06,0,"j")</f>
+        <v>1.06</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>COMPLEX(1,0,"j")</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>COMPLEX(1,0,"j")</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>COMPLEX(1,0,"j")</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>COMPLEX(1,0,"j")</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/files/network_configuration.xlsx
+++ b/files/network_configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\PSA\PSA_CourseProject\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD8AF92-90F0-43A3-9CBD-21736F155EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37E8B0F-7E0F-4D71-87E8-687624145F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{087CFF53-C5D0-435F-B708-014BEF3D516C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Half Line Charging Admittance</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Bus Code</t>
+  </si>
+  <si>
+    <t>Angle</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,20 +639,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B753AEB-BF4C-40EC-9F78-0B099CC9F275}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -657,66 +661,72 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <f>COMPLEX(1.06,0,"j")</f>
+      <c r="B2">
         <v>1.06</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <f>COMPLEX(1,0,"j")</f>
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <f>COMPLEX(1,0,"j")</f>
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
@@ -726,18 +736,20 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>45</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <f>COMPLEX(1,0,"j")</f>
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
@@ -747,18 +759,20 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>40</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <f>COMPLEX(1,0,"j")</f>
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
@@ -768,9 +782,12 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>60</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10</v>
       </c>
     </row>

--- a/files/network_configuration.xlsx
+++ b/files/network_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\PSA\PSA_CourseProject\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37E8B0F-7E0F-4D71-87E8-687624145F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C3E968-12D4-4669-8D9F-1ECD6E8690C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{087CFF53-C5D0-435F-B708-014BEF3D516C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{087CFF53-C5D0-435F-B708-014BEF3D516C}"/>
   </bookViews>
   <sheets>
     <sheet name="Line_data" sheetId="1" r:id="rId1"/>
@@ -445,21 +445,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B469C33-5191-4520-91FC-78F544420011}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -499,7 +499,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -519,7 +519,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -539,7 +539,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -559,7 +559,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -579,7 +579,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -599,7 +599,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -619,15 +619,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
@@ -641,19 +641,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B753AEB-BF4C-40EC-9F78-0B099CC9F275}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -722,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -745,7 +745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -768,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
